--- a/各種設計書（仕様書）.xlsx
+++ b/各種設計書（仕様書）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guro1\OneDrive\デスクトップ\創成C\BlackjackApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guro1\Downloads\blackjack-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB3FFE8-258B-4FA6-9A7F-83C2FB17871A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8B05D1-EB1F-4864-A46A-B5526709D2C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="役割分担表" sheetId="1" r:id="rId1"/>
@@ -244,13 +244,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Hitボタンで追加でドロー</t>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Standボタンでディーラーと勝負</t>
     <rPh sb="15" eb="17">
       <t>ショウブ</t>
@@ -1039,6 +1032,10 @@
     <rPh sb="14" eb="15">
       <t>サキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hitボタンでドロー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1838,22 +1835,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>547989</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:colOff>393251</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDBFCD7-60F1-4C86-B0A1-9E1241E458AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFD545C-BA45-43D1-B3D2-F711401AB0FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,8 +1872,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="0"/>
-          <a:ext cx="3230229" cy="2520000"/>
+          <a:off x="693420" y="0"/>
+          <a:ext cx="3052631" cy="3600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1887,23 +1884,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>520264</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>20640</xdr:rowOff>
+      <xdr:colOff>358254</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>178620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1DEFFB-501C-44BC-B36B-150A5DA931A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FDEA05-0EAF-4389-A204-3E31CDF3A017}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,8 +1922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="662940" y="2529840"/>
-          <a:ext cx="3210124" cy="2520000"/>
+          <a:off x="685800" y="3665220"/>
+          <a:ext cx="3025254" cy="3600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1938,22 +1935,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>519827</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28260</xdr:rowOff>
+      <xdr:colOff>353368</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>178620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="12" name="図 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5C1683-12AE-4486-BF5D-CEB28814D21F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2069F2AF-52D1-453A-92F2-3DE33C6E738B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,8 +1972,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="5052060"/>
-          <a:ext cx="3202067" cy="2520000"/>
+          <a:off x="678180" y="7322820"/>
+          <a:ext cx="3027988" cy="3600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1988,22 +1985,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>500641</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:colOff>385967</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>186240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
+        <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D17D8DD-5CDC-4E9D-A1A9-A3503EF71EF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5074EA61-EA64-4E08-A618-D4F3A2A503D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,158 +2022,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="670560" y="7543800"/>
-          <a:ext cx="3182881" cy="2520000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>662941</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>526940</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>226380</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69056A2-1CA2-4CBA-BF80-3876450BEF8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="662941" y="10050780"/>
-          <a:ext cx="3216799" cy="2520000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>583488</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C57381B-404D-4A0D-94F4-0159BE427C0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="662940" y="12573000"/>
-          <a:ext cx="3273348" cy="2520000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>473210</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>13020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F405E3CA-C480-4E07-841A-7A14ADA06B4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="662940" y="15095220"/>
-          <a:ext cx="3163070" cy="2520000"/>
+          <a:off x="685800" y="10988040"/>
+          <a:ext cx="3052967" cy="3600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2453,7 +2300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2517,7 +2364,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2548,7 +2395,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -2618,7 +2465,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2626,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2634,7 +2481,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2642,7 +2489,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2650,15 +2497,15 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2684,161 +2531,161 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2867,7 +2714,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2875,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2883,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2891,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2899,7 +2746,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2907,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2915,7 +2762,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2923,7 +2770,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2931,7 +2778,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2939,7 +2786,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2947,12 +2794,12 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2960,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2968,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2976,7 +2823,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2984,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2992,7 +2839,7 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3000,7 +2847,7 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3008,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3016,7 +2863,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3024,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3032,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3040,12 +2887,12 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3053,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3080,10 +2927,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C93D79-E308-4701-BD8F-9390665E4EAF}">
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3093,34 +2940,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
+    <row r="17" spans="1:1">
+      <c r="A17">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+    <row r="33" spans="1:1">
+      <c r="A33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+    <row r="49" spans="1:1">
+      <c r="A49">
         <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3149,7 +2981,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -3157,30 +2989,30 @@
     </row>
     <row r="2" spans="1:5" ht="18.600000000000001" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="5">
@@ -3189,13 +3021,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7">
@@ -3204,13 +3036,13 @@
     </row>
     <row r="5" spans="1:5" ht="18.600000000000001" thickBot="1">
       <c r="A5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="9">
@@ -3282,7 +3114,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3290,27 +3122,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
         <v>101</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>102</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3318,38 +3150,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
         <v>112</v>
-      </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
